--- a/tien_trinh_hoc_tap.xlsx
+++ b/tien_trinh_hoc_tap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Tiến trình học tập học viên</t>
   </si>
@@ -59,6 +59,9 @@
     <t>linhtnp1210@gmail.com</t>
   </si>
   <si>
+    <t>0963129099</t>
+  </si>
+  <si>
     <t>ĐỊA LÍ 9</t>
   </si>
   <si>
@@ -80,24 +83,87 @@
     <t>LỊCH SỬ &amp; ĐỊA LÍ 6 (PHẦN ĐỊA LÍ)</t>
   </si>
   <si>
+    <t>17:48 18/06/2025</t>
+  </si>
+  <si>
+    <t>18:11 18/06/2025</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
     <t>Nguyễn Trường Giang</t>
   </si>
   <si>
     <t>gianggpro2004@gmail.com</t>
   </si>
   <si>
+    <t>0398992541</t>
+  </si>
+  <si>
+    <t>18:44 18/06/2025</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Đã hoàn thành</t>
+  </si>
+  <si>
+    <t>18:45 18/06/2025</t>
+  </si>
+  <si>
+    <t>18:46 18/06/2025</t>
+  </si>
+  <si>
+    <t>18:51 18/06/2025</t>
+  </si>
+  <si>
     <t>Trương Ngọc Mai</t>
   </si>
   <si>
     <t>truongngocmai204@gmail.con</t>
   </si>
   <si>
+    <t>0983478388</t>
+  </si>
+  <si>
+    <t>19:04 18/06/2025</t>
+  </si>
+  <si>
+    <t>19:03 18/06/2025</t>
+  </si>
+  <si>
+    <t>19:02 18/06/2025</t>
+  </si>
+  <si>
+    <t>19:01 18/06/2025</t>
+  </si>
+  <si>
     <t>Lò Hoàng Việt</t>
   </si>
   <si>
     <t>lohoangviet11122004@gmail.com</t>
   </si>
   <si>
+    <t>0913559137</t>
+  </si>
+  <si>
+    <t>19:12 18/06/2025</t>
+  </si>
+  <si>
+    <t>19:11 18/06/2025</t>
+  </si>
+  <si>
+    <t>19:10 18/06/2025</t>
+  </si>
+  <si>
+    <t>17:40 18/06/2025</t>
+  </si>
+  <si>
+    <t>19:09 18/06/2025</t>
+  </si>
+  <si>
     <t>Cao Thị Thùy Linh</t>
   </si>
   <si>
@@ -107,13 +173,22 @@
     <t>0837970955</t>
   </si>
   <si>
+    <t>18:40 18/06/2025</t>
+  </si>
+  <si>
+    <t>18:38 18/06/2025</t>
+  </si>
+  <si>
+    <t>18:18 18/06/2025</t>
+  </si>
+  <si>
+    <t>18:32 18/06/2025</t>
+  </si>
+  <si>
     <t>16:12 18/06/2025</t>
   </si>
   <si>
-    <t>16:17 18/06/2025</t>
-  </si>
-  <si>
-    <t>40%</t>
+    <t>18:04 18/06/2025</t>
   </si>
   <si>
     <t>hanglt204@gmail.com</t>
@@ -517,7 +592,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3"/>
@@ -598,21 +673,23 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -622,18 +699,18 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -643,18 +720,18 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -664,18 +741,22 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -683,26 +764,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="J7" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -712,18 +799,22 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="J8" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -733,18 +824,22 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="J9" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,18 +849,22 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -773,26 +872,32 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -802,18 +907,22 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J12" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -823,18 +932,22 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -844,18 +957,22 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="J14" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -863,26 +980,32 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J15" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,18 +1015,22 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="J16" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -913,18 +1040,22 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="J17" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -934,18 +1065,22 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="J18" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -953,28 +1088,32 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="J19" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -984,18 +1123,22 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="J20" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1005,18 +1148,22 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J21" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1026,22 +1173,22 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1049,28 +1196,28 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1080,43 +1227,22 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="J24" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1143,10 +1269,10 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
